--- a/Reporte Interoperabilidad - 21-02-2024.xlsx
+++ b/Reporte Interoperabilidad - 21-02-2024.xlsx
@@ -74,25 +74,45 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TOTALES</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TOTALES</t>
-        </is>
+      <c r="A3" t="n">
+        <v>150.0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOMBRE</t>
+          <t>C.C. SAN MARINO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>300.0</v>
+        <v>150.0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>C.C. ALBAN BORJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -123,21 +143,31 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TOTALES</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TOTALES</t>
-        </is>
+      <c r="A3" t="n">
+        <v>150.0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOMBRE</t>
+          <t>C.C. SAN MARINO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>300.0</v>
+        <v>150.0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -145,8 +175,18 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>MCDEBIT</t>
         </is>
@@ -166,18 +206,88 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>300.0</v>
+        <v>150.0</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C.C. ALBAN BORJA</t>
+          <t>C.C. SAN MARINO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>C.C. ALBAN BORJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>INTERDIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TOTALES</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>C.C. SAN MARINO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>C.C. ALBAN BORJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -202,25 +312,45 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TOTALES</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TOTALES</t>
-        </is>
+      <c r="A3" t="n">
+        <v>150.0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOMBRE</t>
+          <t>C.C. SAN MARINO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>300.0</v>
+        <v>150.0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>C.C. ALBAN BORJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
